--- a/Contact List/Translator.xlsx
+++ b/Contact List/Translator.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VGR\Documents\GitHub\SA-Office\Contact List\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Surname</t>
   </si>
@@ -51,6 +46,21 @@
   </si>
   <si>
     <t>Birthday</t>
+  </si>
+  <si>
+    <t>Baatjies</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
+    <t>AFR</t>
+  </si>
+  <si>
+    <t>Job Spec</t>
+  </si>
+  <si>
+    <t>Recording</t>
   </si>
 </sst>
 </file>
@@ -86,8 +96,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -366,7 +379,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -374,34 +387,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="3" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -411,25 +425,42 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
